--- a/tests/performance/batch_100_files/xlsx/xlsx_018.xlsx
+++ b/tests/performance/batch_100_files/xlsx/xlsx_018.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,67 +422,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value1</t>
-        </is>
+      <c r="A1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <f>A1+B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <f>SUM(A2:B2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data2</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>